--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BCDB4-64C0-2749-9832-3A443AC1E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C7B8E-41C6-1145-879E-C89655313069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="3" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="2120" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -642,14 +642,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +693,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1023,7 +1022,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,16 +1040,16 @@
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1544,399 +1543,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>2025</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>2026</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="21">
         <v>2027</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="21">
         <v>2028</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="21">
         <v>2029</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="21">
         <v>2030</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="21">
         <v>2031</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="21">
         <v>2032</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="21">
         <v>2033</v>
       </c>
-      <c r="L1" s="22">
+      <c r="L1" s="21">
         <v>2034</v>
       </c>
-      <c r="M1" s="22">
+      <c r="M1" s="21">
         <v>2035</v>
       </c>
-      <c r="N1" s="22">
+      <c r="N1" s="21">
         <v>2036</v>
       </c>
-      <c r="O1" s="22">
+      <c r="O1" s="21">
         <v>2037</v>
       </c>
-      <c r="P1" s="22">
+      <c r="P1" s="21">
         <v>2038</v>
       </c>
-      <c r="Q1" s="22">
+      <c r="Q1" s="21">
         <v>2039</v>
       </c>
-      <c r="R1" s="22">
+      <c r="R1" s="21">
         <v>2040</v>
       </c>
-      <c r="S1" s="22">
+      <c r="S1" s="21">
         <v>2041</v>
       </c>
-      <c r="T1" s="22">
+      <c r="T1" s="21">
         <v>2042</v>
       </c>
-      <c r="U1" s="22">
+      <c r="U1" s="21">
         <v>2043</v>
       </c>
-      <c r="V1" s="22">
+      <c r="V1" s="21">
         <v>2044</v>
       </c>
-      <c r="W1" s="22">
+      <c r="W1" s="21">
         <v>2045</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22">
-        <v>1</v>
-      </c>
-      <c r="G2" s="22">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22">
-        <v>1</v>
-      </c>
-      <c r="K2" s="22">
-        <v>1</v>
-      </c>
-      <c r="L2" s="22">
-        <v>1</v>
-      </c>
-      <c r="M2" s="22">
-        <v>1</v>
-      </c>
-      <c r="N2" s="22">
-        <v>1</v>
-      </c>
-      <c r="O2" s="22">
-        <v>1</v>
-      </c>
-      <c r="P2" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>1</v>
-      </c>
-      <c r="R2" s="22">
-        <v>1</v>
-      </c>
-      <c r="S2" s="22">
-        <v>1</v>
-      </c>
-      <c r="T2" s="22">
-        <v>1</v>
-      </c>
-      <c r="U2" s="22">
-        <v>1</v>
-      </c>
-      <c r="V2" s="22">
-        <v>1</v>
-      </c>
-      <c r="W2" s="22">
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21">
+        <v>1</v>
+      </c>
+      <c r="L2" s="21">
+        <v>1</v>
+      </c>
+      <c r="M2" s="21">
+        <v>1</v>
+      </c>
+      <c r="N2" s="21">
+        <v>1</v>
+      </c>
+      <c r="O2" s="21">
+        <v>1</v>
+      </c>
+      <c r="P2" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>1</v>
+      </c>
+      <c r="R2" s="21">
+        <v>1</v>
+      </c>
+      <c r="S2" s="21">
+        <v>1</v>
+      </c>
+      <c r="T2" s="21">
+        <v>1</v>
+      </c>
+      <c r="U2" s="21">
+        <v>1</v>
+      </c>
+      <c r="V2" s="21">
+        <v>1</v>
+      </c>
+      <c r="W2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <f>Sheet1!B34</f>
         <v>0.8</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <f>Sheet1!C34</f>
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <f>Sheet1!D34</f>
         <v>0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <f>Sheet1!E34</f>
         <v>0</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f>Sheet1!F34</f>
         <v>0</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <f>Sheet1!G34</f>
         <v>0</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <f>Sheet1!H34</f>
         <v>0</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <f>Sheet1!I34</f>
         <v>0</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <f>Sheet1!J34</f>
         <v>0</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <f>Sheet1!K34</f>
         <v>0</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="22">
         <f>Sheet1!L34</f>
         <v>0</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <f>Sheet1!M34</f>
         <v>0</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <f>Sheet1!N34</f>
         <v>0</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="22">
         <f>Sheet1!O34</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="22">
         <f>Sheet1!P34</f>
         <v>0</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="22">
         <f>Sheet1!Q34</f>
         <v>0</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <f>Sheet1!R34</f>
         <v>0</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="22">
         <f>Sheet1!S34</f>
         <v>0</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="22">
         <f>Sheet1!T34</f>
         <v>0</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="22">
         <f>Sheet1!U34</f>
         <v>0</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="22">
         <f>Sheet1!V34</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <f>Sheet1!B35</f>
         <v>0.2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <f>Sheet1!C35</f>
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f>Sheet1!D35</f>
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <f>Sheet1!E35</f>
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <f>Sheet1!F35</f>
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <f>Sheet1!G35</f>
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <f>Sheet1!H35</f>
         <v>0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <f>Sheet1!I35</f>
         <v>0</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <f>Sheet1!J35</f>
         <v>0</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <f>Sheet1!K35</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="22">
         <f>Sheet1!L35</f>
         <v>0</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <f>Sheet1!M35</f>
         <v>0</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="22">
         <f>Sheet1!N35</f>
         <v>0</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="22">
         <f>Sheet1!O35</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="22">
         <f>Sheet1!P35</f>
         <v>0</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="22">
         <f>Sheet1!Q35</f>
         <v>0</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="22">
         <f>Sheet1!R35</f>
         <v>0</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="22">
         <f>Sheet1!S35</f>
         <v>0</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="22">
         <f>Sheet1!T35</f>
         <v>0</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="22">
         <f>Sheet1!U35</f>
         <v>0</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="22">
         <f>Sheet1!V35</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22">
-        <v>1</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22">
-        <v>1</v>
-      </c>
-      <c r="O5" s="22">
-        <v>1</v>
-      </c>
-      <c r="P5" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>1</v>
-      </c>
-      <c r="R5" s="22">
-        <v>1</v>
-      </c>
-      <c r="S5" s="22">
-        <v>1</v>
-      </c>
-      <c r="T5" s="22">
-        <v>1</v>
-      </c>
-      <c r="U5" s="22">
-        <v>1</v>
-      </c>
-      <c r="V5" s="22">
-        <v>1</v>
-      </c>
-      <c r="W5" s="22">
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21">
+        <v>1</v>
+      </c>
+      <c r="M5" s="21">
+        <v>1</v>
+      </c>
+      <c r="N5" s="21">
+        <v>1</v>
+      </c>
+      <c r="O5" s="21">
+        <v>1</v>
+      </c>
+      <c r="P5" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1</v>
+      </c>
+      <c r="R5" s="21">
+        <v>1</v>
+      </c>
+      <c r="S5" s="21">
+        <v>1</v>
+      </c>
+      <c r="T5" s="21">
+        <v>1</v>
+      </c>
+      <c r="U5" s="21">
+        <v>1</v>
+      </c>
+      <c r="V5" s="21">
+        <v>1</v>
+      </c>
+      <c r="W5" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2162,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB86C67-1FB8-CB44-BDCD-F09BD6DE6122}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2276,7 +2275,7 @@
       <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <f>AA2/21</f>
         <v>1428.5714285714287</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>2857.1428571428573</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:X13" si="0">$AA2/21+H2</f>
+        <f t="shared" ref="I2:X2" si="0">$AA2/21+H2</f>
         <v>4285.7142857142862</v>
       </c>
       <c r="J2">
@@ -2380,7 +2379,7 @@
       <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <f t="shared" ref="G3:G18" si="2">AA3/21</f>
         <v>0</v>
       </c>
@@ -2484,7 +2483,7 @@
       <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <f t="shared" si="2"/>
         <v>761.90476190476193</v>
       </c>
@@ -2588,7 +2587,7 @@
       <c r="F5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
@@ -2692,7 +2691,7 @@
       <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <f t="shared" si="2"/>
         <v>4.7619047619047619</v>
       </c>
@@ -2796,7 +2795,7 @@
       <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <f t="shared" si="2"/>
         <v>2.3809523809523809</v>
       </c>
@@ -2900,7 +2899,7 @@
       <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3004,7 +3003,7 @@
       <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f t="shared" si="2"/>
         <v>14285.714285714286</v>
       </c>
@@ -3084,7 +3083,7 @@
         <f t="shared" si="1"/>
         <v>285714.28571428574</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="20">
         <f>Sheet1!C12*1000</f>
         <v>300000</v>
       </c>
@@ -3108,7 +3107,7 @@
       <c r="F10" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <f t="shared" si="2"/>
         <v>523.80952380952385</v>
       </c>
@@ -3188,7 +3187,7 @@
         <f t="shared" si="1"/>
         <v>10476.190476190473</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AA10" s="20">
         <f>Sheet1!C13*1000</f>
         <v>11000</v>
       </c>
@@ -3212,7 +3211,7 @@
       <c r="F11" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <f t="shared" si="2"/>
         <v>19047.619047619046</v>
       </c>
@@ -3292,7 +3291,7 @@
         <f t="shared" si="1"/>
         <v>380952.38095238101</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="20">
         <f>Sheet1!C14*1000</f>
         <v>400000</v>
       </c>
@@ -3316,7 +3315,7 @@
       <c r="F12" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <f t="shared" si="2"/>
         <v>14285.714285714286</v>
       </c>
@@ -3396,7 +3395,7 @@
         <f t="shared" si="1"/>
         <v>285714.28571428574</v>
       </c>
-      <c r="AA12" s="21">
+      <c r="AA12" s="20">
         <f>Sheet1!C15*1000</f>
         <v>300000</v>
       </c>
@@ -3420,89 +3419,88 @@
       <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="21">
-        <f t="shared" si="2"/>
+      <c r="G13" s="20">
+        <f>AA13/21</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>$AA14/21+G13</f>
         <v>142.85714285714286</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
+      <c r="I13">
+        <f>$AA14/21+H13</f>
         <v>285.71428571428572</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
+      <c r="J13">
+        <f>$AA14/21+I13</f>
         <v>428.57142857142856</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
+      <c r="K13">
+        <f>$AA14/21+J13</f>
         <v>571.42857142857144</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
+      <c r="L13">
+        <f>$AA14/21+K13</f>
         <v>714.28571428571433</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
+      <c r="M13">
+        <f>$AA14/21+L13</f>
         <v>857.14285714285722</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
+      <c r="N13">
+        <f>$AA14/21+M13</f>
         <v>1000.0000000000001</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
+      <c r="O13">
+        <f>$AA14/21+N13</f>
         <v>1142.8571428571429</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
+      <c r="P13">
+        <f>$AA14/21+O13</f>
         <v>1285.7142857142858</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
+      <c r="Q13">
+        <f>$AA14/21+P13</f>
         <v>1428.5714285714287</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
+      <c r="R13">
+        <f>$AA14/21+Q13</f>
         <v>1571.4285714285716</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="3"/>
+      <c r="S13">
+        <f>$AA14/21+R13</f>
         <v>1714.2857142857144</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
+      <c r="T13">
+        <f>$AA14/21+S13</f>
         <v>1857.1428571428573</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
+      <c r="U13">
+        <f>$AA14/21+T13</f>
         <v>2000.0000000000002</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="3"/>
+      <c r="V13">
+        <f>$AA14/21+U13</f>
         <v>2142.8571428571431</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="3"/>
+      <c r="W13">
+        <f>$AA14/21+V13</f>
         <v>2285.7142857142858</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="3"/>
+      <c r="X13">
+        <f>$AA14/21+W13</f>
         <v>2428.5714285714284</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="1"/>
+      <c r="Y13">
+        <f>$AA14/21+X13</f>
         <v>2571.4285714285711</v>
       </c>
-      <c r="Y13">
-        <f t="shared" si="1"/>
+      <c r="Z13">
+        <f>$AA14/21+Y13</f>
         <v>2714.2857142857138</v>
       </c>
-      <c r="Z13">
-        <f t="shared" si="1"/>
-        <v>2857.1428571428564</v>
-      </c>
-      <c r="AA13" s="21">
-        <f>Sheet1!C16*1000</f>
-        <v>3000</v>
+      <c r="AA13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -3524,89 +3522,89 @@
       <c r="F14" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="21">
-        <f t="shared" si="2"/>
-        <v>285.71428571428572</v>
+      <c r="G14" s="20">
+        <f>AA14/21</f>
+        <v>142.85714285714286</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
-        <v>571.42857142857144</v>
+        <f>$AA15/21+G14</f>
+        <v>428.57142857142856</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>857.14285714285711</v>
+        <f>$AA15/21+H14</f>
+        <v>714.28571428571422</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>1142.8571428571429</v>
+        <f>$AA15/21+I14</f>
+        <v>1000</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
-        <v>1428.5714285714287</v>
+        <f>$AA15/21+J14</f>
+        <v>1285.7142857142858</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
-        <v>1714.2857142857144</v>
+        <f>$AA15/21+K14</f>
+        <v>1571.4285714285716</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>2000.0000000000002</v>
+        <f>$AA15/21+L14</f>
+        <v>1857.1428571428573</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
-        <v>2285.7142857142858</v>
+        <f>$AA15/21+M14</f>
+        <v>2142.8571428571431</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
-        <v>2571.4285714285716</v>
+        <f>$AA15/21+N14</f>
+        <v>2428.5714285714289</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
-        <v>2857.1428571428573</v>
+        <f>$AA15/21+O14</f>
+        <v>2714.2857142857147</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>3142.8571428571431</v>
+        <f>$AA15/21+P14</f>
+        <v>3000.0000000000005</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
-        <v>3428.5714285714289</v>
+        <f>$AA15/21+Q14</f>
+        <v>3285.7142857142862</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
-        <v>3714.2857142857147</v>
+        <f>$AA15/21+R14</f>
+        <v>3571.428571428572</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
-        <v>4000.0000000000005</v>
+        <f>$AA15/21+S14</f>
+        <v>3857.1428571428578</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
-        <v>4285.7142857142862</v>
+        <f>$AA15/21+T14</f>
+        <v>4142.8571428571431</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
-        <v>4571.4285714285716</v>
+        <f>$AA15/21+U14</f>
+        <v>4428.5714285714284</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
-        <v>4857.1428571428569</v>
+        <f>$AA15/21+V14</f>
+        <v>4714.2857142857138</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
-        <v>5142.8571428571422</v>
+        <f>$AA15/21+W14</f>
+        <v>4999.9999999999991</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="1"/>
-        <v>5428.5714285714275</v>
+        <f>$AA15/21+X14</f>
+        <v>5285.7142857142844</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="1"/>
-        <v>5714.2857142857129</v>
-      </c>
-      <c r="AA14" s="21">
-        <f>Sheet1!C17*1000</f>
-        <v>6000</v>
+        <f>$AA15/21+Y14</f>
+        <v>5571.4285714285697</v>
+      </c>
+      <c r="AA14" s="20">
+        <f>Sheet1!C16*1000</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -3628,89 +3626,89 @@
       <c r="F15" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="G15" s="20">
+        <f>AA15/21</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>$AA16/21+G15</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="I15:Z15" si="4">$AA16/21+H15</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="21">
-        <f>Sheet1!C18*1000</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="AA15" s="20">
+        <f>Sheet1!C17*1000</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -3732,7 +3730,7 @@
       <c r="F16" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3812,7 +3810,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="21">
+      <c r="AA16" s="20">
         <f>Sheet1!C19*1000</f>
         <v>0</v>
       </c>
@@ -3836,7 +3834,7 @@
       <c r="F17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <f t="shared" si="2"/>
         <v>119.04761904761905</v>
       </c>
@@ -3916,7 +3914,7 @@
         <f t="shared" si="1"/>
         <v>2380.9523809523816</v>
       </c>
-      <c r="AA17" s="21">
+      <c r="AA17" s="20">
         <f>Sheet1!C20*1000</f>
         <v>2500</v>
       </c>
@@ -3940,7 +3938,7 @@
       <c r="F18" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <f t="shared" si="2"/>
         <v>119.04761904761905</v>
       </c>
@@ -4005,22 +4003,22 @@
         <v>1904.7619047619048</v>
       </c>
       <c r="W18">
-        <f t="shared" ref="W18:Z18" si="4">$AA18/21+V18</f>
+        <f t="shared" ref="W18:Z18" si="5">$AA18/21+V18</f>
         <v>2023.8095238095239</v>
       </c>
       <c r="X18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2142.8571428571431</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2261.9047619047624</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2380.9523809523816</v>
       </c>
-      <c r="AA18" s="21">
+      <c r="AA18" s="20">
         <f>Sheet1!C21*1000</f>
         <v>2500</v>
       </c>
@@ -4034,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487D7336-B959-4943-BB91-2BE20F62B1C9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4068,7 +4066,7 @@
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>45322</v>
       </c>
     </row>
@@ -4076,7 +4074,7 @@
       <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" t="s">
         <v>101</v>
       </c>
     </row>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C7B8E-41C6-1145-879E-C89655313069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44AC084-C0B2-414C-B40A-93C6F8BA9992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="97">
   <si>
     <t>Solar</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Elizabeth Betancourt</t>
   </si>
   <si>
-    <t>Input Category</t>
-  </si>
-  <si>
     <t>Feedstock</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>Unit Code</t>
   </si>
   <si>
-    <t>Solar/Wind</t>
-  </si>
-  <si>
     <t>PV</t>
   </si>
   <si>
@@ -379,18 +373,12 @@
     <t>Wind turbine</t>
   </si>
   <si>
-    <t>Storage</t>
-  </si>
-  <si>
     <t>Battery Storage</t>
   </si>
   <si>
     <t>Pumped hydro</t>
   </si>
   <si>
-    <t>Biomass</t>
-  </si>
-  <si>
     <t>Gasification + Gas Engine</t>
   </si>
   <si>
@@ -401,9 +389,6 @@
   </si>
   <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
   </si>
   <si>
     <t>SMR + CCS</t>
@@ -693,10 +678,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1544,10 +1529,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C1" s="21">
         <v>2025</v>
@@ -1618,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1689,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="22">
         <f>Sheet1!B34</f>
@@ -1781,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="22">
         <f>Sheet1!B35</f>
@@ -1873,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -2159,21 +2144,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB86C67-1FB8-CB44-BDCD-F09BD6DE6122}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="7" max="27" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="26" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2189,202 +2174,197 @@
       <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="G1">
-        <v>2025</v>
-      </c>
-      <c r="H1">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1">
-        <v>2030</v>
-      </c>
-      <c r="M1">
-        <v>2031</v>
-      </c>
-      <c r="N1">
-        <v>2032</v>
-      </c>
-      <c r="O1">
-        <v>2033</v>
-      </c>
-      <c r="P1">
-        <v>2034</v>
-      </c>
-      <c r="Q1">
-        <v>2035</v>
-      </c>
-      <c r="R1">
-        <v>2036</v>
-      </c>
-      <c r="S1">
-        <v>2037</v>
-      </c>
-      <c r="T1">
-        <v>2038</v>
-      </c>
-      <c r="U1">
-        <v>2039</v>
-      </c>
-      <c r="V1">
-        <v>2040</v>
-      </c>
-      <c r="W1">
-        <v>2041</v>
-      </c>
-      <c r="X1">
-        <v>2042</v>
-      </c>
-      <c r="Y1">
-        <v>2043</v>
-      </c>
-      <c r="Z1">
-        <v>2044</v>
-      </c>
-      <c r="AA1">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="20">
-        <f>AA2/21</f>
+      <c r="F2" s="20">
+        <f>Z2/21</f>
         <v>1428.5714285714287</v>
       </c>
+      <c r="G2">
+        <f>$Z2/21+F2</f>
+        <v>2857.1428571428573</v>
+      </c>
       <c r="H2">
-        <f>$AA2/21+G2</f>
-        <v>2857.1428571428573</v>
+        <f t="shared" ref="H2:W2" si="0">$Z2/21+G2</f>
+        <v>4285.7142857142862</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:X2" si="0">$AA2/21+H2</f>
-        <v>4285.7142857142862</v>
+        <f t="shared" si="0"/>
+        <v>5714.2857142857147</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>5714.2857142857147</v>
+        <v>7142.8571428571431</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>7142.8571428571431</v>
+        <v>8571.4285714285725</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>8571.4285714285725</v>
+        <v>10000.000000000002</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>10000.000000000002</v>
+        <v>11428.571428571431</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>11428.571428571431</v>
+        <v>12857.142857142861</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>12857.142857142861</v>
+        <v>14285.71428571429</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>14285.71428571429</v>
+        <v>15714.285714285719</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>15714.285714285719</v>
+        <v>17142.857142857149</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>17142.857142857149</v>
+        <v>18571.428571428576</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>18571.428571428576</v>
+        <v>20000.000000000004</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>20000.000000000004</v>
+        <v>21428.571428571431</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>21428.571428571431</v>
+        <v>22857.142857142859</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>22857.142857142859</v>
+        <v>24285.714285714286</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>24285.714285714286</v>
+        <v>25714.285714285714</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
-        <v>25714.285714285714</v>
+        <f t="shared" ref="W2:Y17" si="1">$Z2/21+W2</f>
+        <v>27142.857142857141</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="X2:Z17" si="1">$AA2/21+X2</f>
-        <v>27142.857142857141</v>
-      </c>
-      <c r="Z2">
         <f t="shared" si="1"/>
         <v>28571.428571428569</v>
       </c>
-      <c r="AA2">
+      <c r="Z2">
         <f>Sheet1!C6*1000</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="20">
-        <f t="shared" ref="G3:G18" si="2">AA3/21</f>
+        <v>74</v>
+      </c>
+      <c r="F3" s="20">
+        <f t="shared" ref="F3:F18" si="2">Z3/21</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:V18" si="3">$Z3/21+F3</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:W18" si="3">$AA3/21+G3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I3">
@@ -2444,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3">
@@ -2456,453 +2436,438 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA3">
         <f>Sheet1!C7*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="20">
+        <v>74</v>
+      </c>
+      <c r="F4" s="20">
         <f t="shared" si="2"/>
         <v>761.90476190476193</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>1523.8095238095239</v>
+      </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>1523.8095238095239</v>
+        <v>2285.7142857142858</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>2285.7142857142858</v>
+        <v>3047.6190476190477</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>3047.6190476190477</v>
+        <v>3809.5238095238096</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>3809.5238095238096</v>
+        <v>4571.4285714285716</v>
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
-        <v>4571.4285714285716</v>
+        <v>5333.3333333333339</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
-        <v>5333.3333333333339</v>
+        <v>6095.2380952380954</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>6095.2380952380954</v>
+        <v>6857.1428571428569</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>6857.1428571428569</v>
+        <v>7619.0476190476184</v>
       </c>
       <c r="P4">
         <f t="shared" si="3"/>
-        <v>7619.0476190476184</v>
+        <v>8380.9523809523798</v>
       </c>
       <c r="Q4">
         <f t="shared" si="3"/>
-        <v>8380.9523809523798</v>
+        <v>9142.8571428571413</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>9142.8571428571413</v>
+        <v>9904.7619047619028</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>9904.7619047619028</v>
+        <v>10666.666666666664</v>
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>10666.666666666664</v>
+        <v>11428.571428571426</v>
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>11428.571428571426</v>
+        <v>12190.476190476187</v>
       </c>
       <c r="V4">
         <f t="shared" si="3"/>
-        <v>12190.476190476187</v>
+        <v>12952.380952380949</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
-        <v>12952.380952380949</v>
+        <f t="shared" si="1"/>
+        <v>13714.28571428571</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>13714.28571428571</v>
+        <v>14476.190476190472</v>
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>14476.190476190472</v>
+        <v>15238.095238095233</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="1"/>
-        <v>15238.095238095233</v>
-      </c>
-      <c r="AA4">
         <f>Sheet1!C8*1000</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="20">
+        <v>74</v>
+      </c>
+      <c r="F5" s="20">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>95.238095238095241</v>
+      </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>95.238095238095241</v>
+        <v>142.85714285714286</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>142.85714285714286</v>
+        <v>190.47619047619048</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>190.47619047619048</v>
+        <v>238.0952380952381</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>238.0952380952381</v>
+        <v>285.71428571428572</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>285.71428571428572</v>
+        <v>333.33333333333337</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>333.33333333333337</v>
+        <v>380.95238095238096</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>380.95238095238096</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>428.57142857142856</v>
+        <v>476.19047619047615</v>
       </c>
       <c r="P5">
         <f t="shared" si="3"/>
-        <v>476.19047619047615</v>
+        <v>523.80952380952374</v>
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>523.80952380952374</v>
+        <v>571.42857142857133</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>571.42857142857133</v>
+        <v>619.04761904761892</v>
       </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>619.04761904761892</v>
+        <v>666.66666666666652</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>666.66666666666652</v>
+        <v>714.28571428571411</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>714.28571428571411</v>
+        <v>761.9047619047617</v>
       </c>
       <c r="V5">
         <f t="shared" si="3"/>
-        <v>761.9047619047617</v>
+        <v>809.52380952380929</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
-        <v>809.52380952380929</v>
+        <f t="shared" si="1"/>
+        <v>857.14285714285688</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>857.14285714285688</v>
+        <v>904.76190476190447</v>
       </c>
       <c r="Y5">
         <f t="shared" si="1"/>
-        <v>904.76190476190447</v>
+        <v>952.38095238095207</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>952.38095238095207</v>
-      </c>
-      <c r="AA5">
         <f>Sheet1!C9*1000</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="20">
+        <v>74</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="2"/>
         <v>4.7619047619047619</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>9.5238095238095237</v>
+      </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>9.5238095238095237</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>14.285714285714285</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>19.047619047619047</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>23.80952380952381</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>28.571428571428573</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <v>38.095238095238095</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>38.095238095238095</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>42.857142857142854</v>
+        <v>47.619047619047613</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>47.619047619047613</v>
+        <v>52.380952380952372</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>52.380952380952372</v>
+        <v>57.142857142857132</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>57.142857142857132</v>
+        <v>61.904761904761891</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>61.904761904761891</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>71.428571428571416</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>71.428571428571416</v>
+        <v>76.190476190476176</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>76.190476190476176</v>
+        <v>80.952380952380935</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
-        <v>80.952380952380935</v>
+        <f t="shared" si="1"/>
+        <v>85.714285714285694</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>85.714285714285694</v>
+        <v>90.476190476190453</v>
       </c>
       <c r="Y6">
         <f t="shared" si="1"/>
-        <v>90.476190476190453</v>
+        <v>95.238095238095212</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>95.238095238095212</v>
-      </c>
-      <c r="AA6">
         <f>Sheet1!C10*1000</f>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="20">
+        <v>74</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" si="2"/>
         <v>2.3809523809523809</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047619</v>
+      </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>4.7619047619047619</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>7.1428571428571423</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>9.5238095238095237</v>
+        <v>11.904761904761905</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>11.904761904761905</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>14.285714285714286</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>16.666666666666668</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>19.047619047619047</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>21.428571428571427</v>
+        <v>23.809523809523807</v>
       </c>
       <c r="P7">
         <f t="shared" si="3"/>
-        <v>23.809523809523807</v>
+        <v>26.190476190476186</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>26.190476190476186</v>
+        <v>28.571428571428566</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>28.571428571428566</v>
+        <v>30.952380952380945</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>30.952380952380945</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
+        <v>35.714285714285708</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>35.714285714285708</v>
+        <v>38.095238095238088</v>
       </c>
       <c r="V7">
         <f t="shared" si="3"/>
-        <v>38.095238095238088</v>
+        <v>40.476190476190467</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
-        <v>40.476190476190467</v>
+        <f t="shared" si="1"/>
+        <v>42.857142857142847</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>42.857142857142847</v>
+        <v>45.238095238095227</v>
       </c>
       <c r="Y7">
         <f t="shared" si="1"/>
-        <v>45.238095238095227</v>
+        <v>47.619047619047606</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>47.619047619047606</v>
-      </c>
-      <c r="AA7">
         <f>Sheet1!C11*1000</f>
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="20">
+        <v>74</v>
+      </c>
+      <c r="F8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H8">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2964,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X8">
@@ -2976,764 +2941,740 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA8">
         <f>[1]portfolio_input!C14*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="20">
+        <v>81</v>
+      </c>
+      <c r="F9" s="20">
         <f t="shared" si="2"/>
         <v>14285.714285714286</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>28571.428571428572</v>
+      </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>28571.428571428572</v>
+        <v>42857.142857142855</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>42857.142857142855</v>
+        <v>57142.857142857145</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>57142.857142857145</v>
+        <v>71428.571428571435</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>71428.571428571435</v>
+        <v>85714.285714285725</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>85714.285714285725</v>
+        <v>100000.00000000001</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>100000.00000000001</v>
+        <v>114285.7142857143</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>114285.7142857143</v>
+        <v>128571.42857142859</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>128571.42857142859</v>
+        <v>142857.14285714287</v>
       </c>
       <c r="P9">
         <f t="shared" si="3"/>
-        <v>142857.14285714287</v>
+        <v>157142.85714285716</v>
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
-        <v>157142.85714285716</v>
+        <v>171428.57142857145</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>171428.57142857145</v>
+        <v>185714.28571428574</v>
       </c>
       <c r="S9">
         <f t="shared" si="3"/>
-        <v>185714.28571428574</v>
+        <v>200000.00000000003</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>200000.00000000003</v>
+        <v>214285.71428571432</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>214285.71428571432</v>
+        <v>228571.42857142861</v>
       </c>
       <c r="V9">
         <f t="shared" si="3"/>
-        <v>228571.42857142861</v>
+        <v>242857.1428571429</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
-        <v>242857.1428571429</v>
+        <f t="shared" si="1"/>
+        <v>257142.85714285719</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>257142.85714285719</v>
+        <v>271428.57142857148</v>
       </c>
       <c r="Y9">
         <f t="shared" si="1"/>
+        <v>285714.28571428574</v>
+      </c>
+      <c r="Z9" s="20">
+        <f>Sheet1!C12*1000</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="2"/>
+        <v>523.80952380952385</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1047.6190476190477</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1571.4285714285716</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>2095.2380952380954</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>2619.0476190476193</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>3142.8571428571431</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>3666.666666666667</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>4190.4761904761908</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>4714.2857142857147</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>5238.0952380952385</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>5761.9047619047624</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>6285.7142857142862</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>6809.5238095238101</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>7333.3333333333339</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>7857.1428571428578</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>8380.9523809523816</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>8904.7619047619046</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>9428.5714285714275</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>9952.3809523809505</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>10476.190476190473</v>
+      </c>
+      <c r="Z10" s="20">
+        <f>Sheet1!C13*1000</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>19047.619047619046</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>38095.238095238092</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>57142.857142857138</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>76190.476190476184</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>95238.095238095237</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>114285.71428571429</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>133333.33333333334</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>152380.9523809524</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>171428.57142857145</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>190476.1904761905</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>209523.80952380956</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>228571.42857142861</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>247619.04761904766</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>266666.66666666669</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>285714.28571428574</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>304761.90476190479</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>323809.52380952385</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>342857.1428571429</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>361904.76190476195</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>380952.38095238101</v>
+      </c>
+      <c r="Z11" s="20">
+        <f>Sheet1!C14*1000</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>28571.428571428572</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>42857.142857142855</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>57142.857142857145</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>71428.571428571435</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>85714.285714285725</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>100000.00000000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>114285.7142857143</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>128571.42857142859</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>142857.14285714287</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>157142.85714285716</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>171428.57142857145</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>185714.28571428574</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>200000.00000000003</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>214285.71428571432</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>228571.42857142861</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>242857.1428571429</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>257142.85714285719</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
         <v>271428.57142857148</v>
       </c>
-      <c r="Z9">
+      <c r="Y12">
         <f t="shared" si="1"/>
         <v>285714.28571428574</v>
       </c>
-      <c r="AA9" s="20">
-        <f>Sheet1!C12*1000</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" si="2"/>
-        <v>523.80952380952385</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>1047.6190476190477</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>1571.4285714285716</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>2095.2380952380954</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>2619.0476190476193</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>3142.8571428571431</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>3666.666666666667</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>4190.4761904761908</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>4714.2857142857147</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>5238.0952380952385</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>5761.9047619047624</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
-        <v>6285.7142857142862</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>6809.5238095238101</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>7333.3333333333339</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
-        <v>7857.1428571428578</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="3"/>
-        <v>8380.9523809523816</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="3"/>
-        <v>8904.7619047619046</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="1"/>
-        <v>9428.5714285714275</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>9952.3809523809505</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>10476.190476190473</v>
-      </c>
-      <c r="AA10" s="20">
-        <f>Sheet1!C13*1000</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="2"/>
-        <v>19047.619047619046</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>38095.238095238092</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>57142.857142857138</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>76190.476190476184</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>95238.095238095237</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>114285.71428571429</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>133333.33333333334</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
-        <v>152380.9523809524</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>171428.57142857145</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>190476.1904761905</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>209523.80952380956</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>228571.42857142861</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>247619.04761904766</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>266666.66666666669</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
-        <v>285714.28571428574</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="3"/>
-        <v>304761.90476190479</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="3"/>
-        <v>323809.52380952385</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="1"/>
-        <v>342857.1428571429</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="1"/>
-        <v>361904.76190476195</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="1"/>
-        <v>380952.38095238101</v>
-      </c>
-      <c r="AA11" s="20">
-        <f>Sheet1!C14*1000</f>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="2"/>
-        <v>14285.714285714286</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>28571.428571428572</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>42857.142857142855</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>57142.857142857145</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>71428.571428571435</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>85714.285714285725</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>100000.00000000001</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
-        <v>114285.7142857143</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>128571.42857142859</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>142857.14285714287</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>157142.85714285716</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="3"/>
-        <v>171428.57142857145</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>185714.28571428574</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>200000.00000000003</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
-        <v>214285.71428571432</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="3"/>
-        <v>228571.42857142861</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="3"/>
-        <v>242857.1428571429</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="1"/>
-        <v>257142.85714285719</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="1"/>
-        <v>271428.57142857148</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="1"/>
-        <v>285714.28571428574</v>
-      </c>
-      <c r="AA12" s="20">
+      <c r="Z12" s="20">
         <f>Sheet1!C15*1000</f>
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" s="20">
+        <f>Z13/21</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13" si="4">$Z13/21+G13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13" si="5">$Z13/21+H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="6">$Z13/21+I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="7">$Z13/21+J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="8">$Z13/21+K13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="9">$Z13/21+L13</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="10">$Z13/21+M13</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13" si="11">$Z13/21+N13</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13" si="12">$Z13/21+O13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13" si="13">$Z13/21+P13</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13" si="14">$Z13/21+Q13</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13" si="15">$Z13/21+R13</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13" si="16">$Z13/21+S13</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13" si="17">$Z13/21+T13</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13" si="18">$Z13/21+U13</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="20">
-        <f>AA13/21</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>$AA14/21+G13</f>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="20">
+        <f>Z14/21</f>
         <v>142.85714285714286</v>
       </c>
-      <c r="I13">
-        <f>$AA14/21+H13</f>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="J13">
-        <f>$AA14/21+I13</f>
+      <c r="G14">
+        <f t="shared" ref="G13:P14" si="19">$Z15/21+F14</f>
         <v>428.57142857142856</v>
       </c>
-      <c r="K13">
-        <f>$AA14/21+J13</f>
-        <v>571.42857142857144</v>
-      </c>
-      <c r="L13">
-        <f>$AA14/21+K13</f>
-        <v>714.28571428571433</v>
-      </c>
-      <c r="M13">
-        <f>$AA14/21+L13</f>
-        <v>857.14285714285722</v>
-      </c>
-      <c r="N13">
-        <f>$AA14/21+M13</f>
-        <v>1000.0000000000001</v>
-      </c>
-      <c r="O13">
-        <f>$AA14/21+N13</f>
-        <v>1142.8571428571429</v>
-      </c>
-      <c r="P13">
-        <f>$AA14/21+O13</f>
+      <c r="H14">
+        <f t="shared" si="19"/>
+        <v>714.28571428571422</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="19"/>
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="19"/>
         <v>1285.7142857142858</v>
       </c>
-      <c r="Q13">
-        <f>$AA14/21+P13</f>
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="R13">
-        <f>$AA14/21+Q13</f>
+      <c r="K14">
+        <f t="shared" si="19"/>
         <v>1571.4285714285716</v>
       </c>
-      <c r="S13">
-        <f>$AA14/21+R13</f>
-        <v>1714.2857142857144</v>
-      </c>
-      <c r="T13">
-        <f>$AA14/21+S13</f>
+      <c r="L14">
+        <f t="shared" si="19"/>
         <v>1857.1428571428573</v>
       </c>
-      <c r="U13">
-        <f>$AA14/21+T13</f>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="V13">
-        <f>$AA14/21+U13</f>
+      <c r="M14">
+        <f t="shared" si="19"/>
         <v>2142.8571428571431</v>
       </c>
-      <c r="W13">
-        <f>$AA14/21+V13</f>
-        <v>2285.7142857142858</v>
-      </c>
-      <c r="X13">
-        <f>$AA14/21+W13</f>
-        <v>2428.5714285714284</v>
-      </c>
-      <c r="Y13">
-        <f>$AA14/21+X13</f>
-        <v>2571.4285714285711</v>
-      </c>
-      <c r="Z13">
-        <f>$AA14/21+Y13</f>
-        <v>2714.2857142857138</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="20">
-        <f>AA14/21</f>
-        <v>142.85714285714286</v>
-      </c>
-      <c r="H14">
-        <f>$AA15/21+G14</f>
-        <v>428.57142857142856</v>
-      </c>
-      <c r="I14">
-        <f>$AA15/21+H14</f>
-        <v>714.28571428571422</v>
-      </c>
-      <c r="J14">
-        <f>$AA15/21+I14</f>
-        <v>1000</v>
-      </c>
-      <c r="K14">
-        <f>$AA15/21+J14</f>
-        <v>1285.7142857142858</v>
-      </c>
-      <c r="L14">
-        <f>$AA15/21+K14</f>
-        <v>1571.4285714285716</v>
-      </c>
-      <c r="M14">
-        <f>$AA15/21+L14</f>
-        <v>1857.1428571428573</v>
-      </c>
       <c r="N14">
-        <f>$AA15/21+M14</f>
-        <v>2142.8571428571431</v>
+        <f t="shared" si="19"/>
+        <v>2428.5714285714289</v>
       </c>
       <c r="O14">
-        <f>$AA15/21+N14</f>
-        <v>2428.5714285714289</v>
+        <f t="shared" si="19"/>
+        <v>2714.2857142857147</v>
       </c>
       <c r="P14">
-        <f>$AA15/21+O14</f>
-        <v>2714.2857142857147</v>
+        <f t="shared" si="19"/>
+        <v>3000.0000000000005</v>
       </c>
       <c r="Q14">
-        <f>$AA15/21+P14</f>
-        <v>3000.0000000000005</v>
+        <f t="shared" ref="Q13:Z14" si="20">$Z15/21+P14</f>
+        <v>3285.7142857142862</v>
       </c>
       <c r="R14">
-        <f>$AA15/21+Q14</f>
-        <v>3285.7142857142862</v>
+        <f t="shared" si="20"/>
+        <v>3571.428571428572</v>
       </c>
       <c r="S14">
-        <f>$AA15/21+R14</f>
-        <v>3571.428571428572</v>
+        <f t="shared" si="20"/>
+        <v>3857.1428571428578</v>
       </c>
       <c r="T14">
-        <f>$AA15/21+S14</f>
-        <v>3857.1428571428578</v>
+        <f t="shared" si="20"/>
+        <v>4142.8571428571431</v>
       </c>
       <c r="U14">
-        <f>$AA15/21+T14</f>
-        <v>4142.8571428571431</v>
+        <f t="shared" si="20"/>
+        <v>4428.5714285714284</v>
       </c>
       <c r="V14">
-        <f>$AA15/21+U14</f>
-        <v>4428.5714285714284</v>
+        <f t="shared" si="20"/>
+        <v>4714.2857142857138</v>
       </c>
       <c r="W14">
-        <f>$AA15/21+V14</f>
-        <v>4714.2857142857138</v>
+        <f t="shared" si="20"/>
+        <v>4999.9999999999991</v>
       </c>
       <c r="X14">
-        <f>$AA15/21+W14</f>
-        <v>4999.9999999999991</v>
+        <f t="shared" si="20"/>
+        <v>5285.7142857142844</v>
       </c>
       <c r="Y14">
-        <f>$AA15/21+X14</f>
-        <v>5285.7142857142844</v>
-      </c>
-      <c r="Z14">
-        <f>$AA15/21+Y14</f>
+        <f t="shared" si="20"/>
         <v>5571.4285714285697</v>
       </c>
-      <c r="AA14" s="20">
+      <c r="Z14" s="20">
         <f>Sheet1!C16*1000</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="20">
-        <f>AA15/21</f>
+        <v>86</v>
+      </c>
+      <c r="F15" s="20">
+        <f>Z15/21</f>
         <v>285.71428571428572</v>
       </c>
+      <c r="G15">
+        <f>$Z16/21+F15</f>
+        <v>285.71428571428572</v>
+      </c>
       <c r="H15">
-        <f>$AA16/21+G15</f>
+        <f t="shared" ref="H15:Y15" si="21">$Z16/21+G15</f>
         <v>285.71428571428572</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:Z15" si="4">$AA16/21+H15</f>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="T15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="W15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="X15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>285.71428571428572</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="4"/>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="AA15" s="20">
+      <c r="Z15" s="20">
         <f>Sheet1!C17*1000</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="20">
+        <v>88</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H16">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3795,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16">
@@ -3806,221 +3747,210 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="20">
+        <f>Sheet1!C19*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="AA16" s="20">
-        <f>Sheet1!C19*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" si="2"/>
-        <v>119.04761904761905</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>238.0952380952381</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>357.14285714285717</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>476.1904761904762</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>595.2380952380953</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
-        <v>714.28571428571433</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>952.38095238095241</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>1071.4285714285716</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>1190.4761904761906</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>1309.5238095238096</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>1547.6190476190477</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>1666.6666666666667</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="3"/>
-        <v>1785.7142857142858</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="3"/>
-        <v>1904.7619047619048</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="3"/>
-        <v>2023.8095238095239</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>2142.8571428571431</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <f t="shared" si="1"/>
-        <v>2261.9047619047624</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="1"/>
-        <v>2380.9523809523816</v>
-      </c>
-      <c r="AA17" s="20">
-        <f>Sheet1!C20*1000</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="20">
+        <v>88</v>
+      </c>
+      <c r="F18" s="20">
         <f t="shared" si="2"/>
-        <v>119.04761904761905</v>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.47619047619047616</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>238.0952380952381</v>
+        <v>0.71428571428571419</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>357.14285714285717</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>476.1904761904762</v>
+        <v>1.1904761904761905</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>595.2380952380953</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>714.28571428571433</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>833.33333333333337</v>
+        <v>1.9047619047619049</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>952.38095238095241</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>1071.4285714285716</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="P18">
         <f t="shared" si="3"/>
-        <v>1190.4761904761906</v>
+        <v>2.6190476190476191</v>
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>1309.5238095238096</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>1428.5714285714287</v>
+        <v>3.0952380952380953</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>1547.6190476190477</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>1666.6666666666667</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="U18">
         <f t="shared" si="3"/>
-        <v>1785.7142857142858</v>
+        <v>3.8095238095238098</v>
       </c>
       <c r="V18">
-        <f t="shared" si="3"/>
-        <v>1904.7619047619048</v>
+        <f t="shared" ref="V18:Y18" si="22">$Z18/21+U18</f>
+        <v>4.0476190476190474</v>
       </c>
       <c r="W18">
-        <f t="shared" ref="W18:Z18" si="5">$AA18/21+V18</f>
-        <v>2023.8095238095239</v>
+        <f t="shared" si="22"/>
+        <v>4.2857142857142856</v>
       </c>
       <c r="X18">
-        <f t="shared" si="5"/>
-        <v>2142.8571428571431</v>
+        <f t="shared" si="22"/>
+        <v>4.5238095238095237</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="5"/>
-        <v>2261.9047619047624</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="5"/>
-        <v>2380.9523809523816</v>
-      </c>
-      <c r="AA18" s="20">
-        <f>Sheet1!C21*1000</f>
-        <v>2500</v>
+        <f t="shared" si="22"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="Z18" s="20">
+        <f>Sheet1!C20+Sheet1!C21</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4005,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44AC084-C0B2-414C-B40A-93C6F8BA9992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF941D-DA92-C047-80C5-00284DDA5C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
@@ -412,9 +412,6 @@
     <t>MGal</t>
   </si>
   <si>
-    <t>Fats, Oils, and Greases</t>
-  </si>
-  <si>
     <t>HEFA</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
 I kept the "animal manure" line the same, since there's really significant public opposition to those in the SJV.
 I allocated all forest and ag waste to electricity and H2, and none to SAF because of shipping costs and their impact on CI score.
 Don't know how much H2 it would take to cover all of the SJV's urea needs, but it would be great to get at that number.</t>
+  </si>
+  <si>
+    <t>Animal Fats</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
       <sheetData sheetId="0">
         <row r="14">
           <cell r="C14">
-            <v>0</v>
+            <v>1.4906832298136647E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1532,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="21">
         <v>2025</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22">
         <f>Sheet1!B34</f>
@@ -1766,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="22">
         <f>Sheet1!B35</f>
@@ -1858,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -2147,7 +2147,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2862,87 +2862,87 @@
       </c>
       <c r="F8" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7098491570541261</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4196983141082522</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1295474711623781</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8393966282165044</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5492457852706307</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.259094942324757</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9689440993788834</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6787932564330097</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.388642413487136</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.0984915705412623</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.8083407275953887</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.5181898846495141</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.2280390417036404</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9378881987577667</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.647737355811893</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.357586512866019</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.067435669920146</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.777284826974272</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.487133984028398</v>
       </c>
       <c r="Y8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.196983141082525</v>
       </c>
       <c r="Z8">
         <f>[1]portfolio_input!C14*1000</f>
-        <v>0</v>
+        <v>14.906832298136647</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>142.85714285714286</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G13:P14" si="19">$Z15/21+F14</f>
+        <f t="shared" ref="G14:P14" si="19">$Z15/21+F14</f>
         <v>428.57142857142856</v>
       </c>
       <c r="H14">
@@ -3510,7 +3510,7 @@
         <v>3000.0000000000005</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q13:Z14" si="20">$Z15/21+P14</f>
+        <f t="shared" ref="Q14:Y14" si="20">$Z15/21+P14</f>
         <v>3285.7142857142862</v>
       </c>
       <c r="R14">
@@ -3854,10 +3854,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -4005,7 +4005,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF941D-DA92-C047-80C5-00284DDA5C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A981A2C2-2927-DB4E-B9D6-F3E5639D7BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="feedstock_to_commodity" sheetId="4" r:id="rId3"/>
     <sheet name="portfolio_metadata" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="96">
   <si>
     <t>Solar</t>
   </si>
@@ -380,9 +377,6 @@
   </si>
   <si>
     <t>Gasification + Gas Engine</t>
-  </si>
-  <si>
-    <t>Anaerobic Digestion + Conditioning + Gas Engine</t>
   </si>
   <si>
     <t>PV + Electrolysis</t>
@@ -655,36 +649,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="portfolio_input"/>
-      <sheetName val="portfolio_metadata"/>
-      <sheetName val="feedstock_to_commodity"/>
-      <sheetName val="commodity_to_use"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="14">
-          <cell r="C14">
-            <v>1.4906832298136647E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,7 +971,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1496,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="21">
         <v>2025</v>
@@ -1603,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1674,7 +1638,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="22">
         <f>Sheet1!B34</f>
@@ -1766,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="22">
         <f>Sheet1!B35</f>
@@ -1858,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -2144,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB86C67-1FB8-CB44-BDCD-F09BD6DE6122}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2327,7 +2291,7 @@
         <v>25714.285714285714</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="W2:Y17" si="1">$Z2/21+W2</f>
+        <f t="shared" ref="W2:Y16" si="1">$Z2/21+W2</f>
         <v>27142.857142857141</v>
       </c>
       <c r="Y2">
@@ -2356,11 +2320,11 @@
         <v>74</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F18" si="2">Z3/21</f>
+        <f t="shared" ref="F3:F17" si="2">Z3/21</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:V18" si="3">$Z3/21+F3</f>
+        <f t="shared" ref="G3:V17" si="3">$Z3/21+F3</f>
         <v>0</v>
       </c>
       <c r="H3">
@@ -2846,111 +2810,111 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F8" s="20">
         <f t="shared" si="2"/>
-        <v>0.7098491570541261</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>1.4196983141082522</v>
+        <v>28571.428571428572</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>2.1295474711623781</v>
+        <v>42857.142857142855</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>2.8393966282165044</v>
+        <v>57142.857142857145</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>3.5492457852706307</v>
+        <v>71428.571428571435</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>4.259094942324757</v>
+        <v>85714.285714285725</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>4.9689440993788834</v>
+        <v>100000.00000000001</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>5.6787932564330097</v>
+        <v>114285.7142857143</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>6.388642413487136</v>
+        <v>128571.42857142859</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>7.0984915705412623</v>
+        <v>142857.14285714287</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>7.8083407275953887</v>
+        <v>157142.85714285716</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>8.5181898846495141</v>
+        <v>171428.57142857145</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>9.2280390417036404</v>
+        <v>185714.28571428574</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>9.9378881987577667</v>
+        <v>200000.00000000003</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>10.647737355811893</v>
+        <v>214285.71428571432</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>11.357586512866019</v>
+        <v>228571.42857142861</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
-        <v>12.067435669920146</v>
+        <v>242857.1428571429</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>12.777284826974272</v>
+        <v>257142.85714285719</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>13.487133984028398</v>
+        <v>271428.57142857148</v>
       </c>
       <c r="Y8">
         <f t="shared" si="1"/>
-        <v>14.196983141082525</v>
-      </c>
-      <c r="Z8">
-        <f>[1]portfolio_input!C14*1000</f>
-        <v>14.906832298136647</v>
+        <v>285714.28571428574</v>
+      </c>
+      <c r="Z8" s="20">
+        <f>Sheet1!C12*1000</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2959,96 +2923,96 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="2"/>
-        <v>14285.714285714286</v>
+        <v>523.80952380952385</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>28571.428571428572</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>42857.142857142855</v>
+        <v>1571.4285714285716</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>57142.857142857145</v>
+        <v>2095.2380952380954</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>71428.571428571435</v>
+        <v>2619.0476190476193</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>85714.285714285725</v>
+        <v>3142.8571428571431</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>100000.00000000001</v>
+        <v>3666.666666666667</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>114285.7142857143</v>
+        <v>4190.4761904761908</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>128571.42857142859</v>
+        <v>4714.2857142857147</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>142857.14285714287</v>
+        <v>5238.0952380952385</v>
       </c>
       <c r="P9">
         <f t="shared" si="3"/>
-        <v>157142.85714285716</v>
+        <v>5761.9047619047624</v>
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
-        <v>171428.57142857145</v>
+        <v>6285.7142857142862</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>185714.28571428574</v>
+        <v>6809.5238095238101</v>
       </c>
       <c r="S9">
         <f t="shared" si="3"/>
-        <v>200000.00000000003</v>
+        <v>7333.3333333333339</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>214285.71428571432</v>
+        <v>7857.1428571428578</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>228571.42857142861</v>
+        <v>8380.9523809523816</v>
       </c>
       <c r="V9">
         <f t="shared" si="3"/>
-        <v>242857.1428571429</v>
+        <v>8904.7619047619046</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>257142.85714285719</v>
+        <v>9428.5714285714275</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>271428.57142857148</v>
+        <v>9952.3809523809505</v>
       </c>
       <c r="Y9">
         <f t="shared" si="1"/>
-        <v>285714.28571428574</v>
+        <v>10476.190476190473</v>
       </c>
       <c r="Z9" s="20">
-        <f>Sheet1!C12*1000</f>
-        <v>300000</v>
+        <f>Sheet1!C13*1000</f>
+        <v>11000</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -3060,99 +3024,99 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="2"/>
-        <v>523.80952380952385</v>
+        <v>19047.619047619046</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>1047.6190476190477</v>
+        <v>38095.238095238092</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>1571.4285714285716</v>
+        <v>57142.857142857138</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>2095.2380952380954</v>
+        <v>76190.476190476184</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>2619.0476190476193</v>
+        <v>95238.095238095237</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>3142.8571428571431</v>
+        <v>114285.71428571429</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>3666.666666666667</v>
+        <v>133333.33333333334</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>4190.4761904761908</v>
+        <v>152380.9523809524</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>4714.2857142857147</v>
+        <v>171428.57142857145</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>5238.0952380952385</v>
+        <v>190476.1904761905</v>
       </c>
       <c r="P10">
         <f t="shared" si="3"/>
-        <v>5761.9047619047624</v>
+        <v>209523.80952380956</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>6285.7142857142862</v>
+        <v>228571.42857142861</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
-        <v>6809.5238095238101</v>
+        <v>247619.04761904766</v>
       </c>
       <c r="S10">
         <f t="shared" si="3"/>
-        <v>7333.3333333333339</v>
+        <v>266666.66666666669</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>7857.1428571428578</v>
+        <v>285714.28571428574</v>
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>8380.9523809523816</v>
+        <v>304761.90476190479</v>
       </c>
       <c r="V10">
         <f t="shared" si="3"/>
-        <v>8904.7619047619046</v>
+        <v>323809.52380952385</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>9428.5714285714275</v>
+        <v>342857.1428571429</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>9952.3809523809505</v>
+        <v>361904.76190476195</v>
       </c>
       <c r="Y10">
         <f t="shared" si="1"/>
-        <v>10476.190476190473</v>
+        <v>380952.38095238101</v>
       </c>
       <c r="Z10" s="20">
-        <f>Sheet1!C13*1000</f>
-        <v>11000</v>
+        <f>Sheet1!C14*1000</f>
+        <v>400000</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -3161,96 +3125,96 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="2"/>
-        <v>19047.619047619046</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>38095.238095238092</v>
+        <v>28571.428571428572</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>57142.857142857138</v>
+        <v>42857.142857142855</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>76190.476190476184</v>
+        <v>57142.857142857145</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>95238.095238095237</v>
+        <v>71428.571428571435</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>114285.71428571429</v>
+        <v>85714.285714285725</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>133333.33333333334</v>
+        <v>100000.00000000001</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>152380.9523809524</v>
+        <v>114285.7142857143</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
+        <v>128571.42857142859</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>142857.14285714287</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>157142.85714285716</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
         <v>171428.57142857145</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>190476.1904761905</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>209523.80952380956</v>
-      </c>
-      <c r="Q11">
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>185714.28571428574</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>200000.00000000003</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>214285.71428571432</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="3"/>
         <v>228571.42857142861</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>247619.04761904766</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>266666.66666666669</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>285714.28571428574</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
-        <v>304761.90476190479</v>
-      </c>
       <c r="V11">
         <f t="shared" si="3"/>
-        <v>323809.52380952385</v>
+        <v>242857.1428571429</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>342857.1428571429</v>
+        <v>257142.85714285719</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>361904.76190476195</v>
+        <v>271428.57142857148</v>
       </c>
       <c r="Y11">
         <f t="shared" si="1"/>
-        <v>380952.38095238101</v>
+        <v>285714.28571428574</v>
       </c>
       <c r="Z11" s="20">
-        <f>Sheet1!C14*1000</f>
-        <v>400000</v>
+        <f>Sheet1!C15*1000</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -3262,199 +3226,199 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="20">
-        <f t="shared" si="2"/>
-        <v>14285.714285714286</v>
+        <f>Z12/21</f>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>28571.428571428572</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
-        <v>42857.142857142855</v>
+        <f t="shared" ref="H12" si="4">$Z12/21+G12</f>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
-        <v>57142.857142857145</v>
+        <f t="shared" ref="I12" si="5">$Z12/21+H12</f>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>71428.571428571435</v>
+        <f t="shared" ref="J12" si="6">$Z12/21+I12</f>
+        <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
-        <v>85714.285714285725</v>
+        <f t="shared" ref="K12" si="7">$Z12/21+J12</f>
+        <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
-        <v>100000.00000000001</v>
+        <f t="shared" ref="L12" si="8">$Z12/21+K12</f>
+        <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
-        <v>114285.7142857143</v>
+        <f t="shared" ref="M12" si="9">$Z12/21+L12</f>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
-        <v>128571.42857142859</v>
+        <f t="shared" ref="N12" si="10">$Z12/21+M12</f>
+        <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
-        <v>142857.14285714287</v>
+        <f t="shared" ref="O12" si="11">$Z12/21+N12</f>
+        <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
-        <v>157142.85714285716</v>
+        <f t="shared" ref="P12" si="12">$Z12/21+O12</f>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>171428.57142857145</v>
+        <f t="shared" ref="Q12" si="13">$Z12/21+P12</f>
+        <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
-        <v>185714.28571428574</v>
+        <f t="shared" ref="R12" si="14">$Z12/21+Q12</f>
+        <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
-        <v>200000.00000000003</v>
+        <f t="shared" ref="S12" si="15">$Z12/21+R12</f>
+        <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
-        <v>214285.71428571432</v>
+        <f t="shared" ref="T12" si="16">$Z12/21+S12</f>
+        <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
-        <v>228571.42857142861</v>
+        <f t="shared" ref="U12" si="17">$Z12/21+T12</f>
+        <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
-        <v>242857.1428571429</v>
+        <f t="shared" ref="V12" si="18">$Z12/21+U12</f>
+        <v>0</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>257142.85714285719</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>271428.57142857148</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <f t="shared" si="1"/>
-        <v>285714.28571428574</v>
-      </c>
-      <c r="Z12" s="20">
-        <f>Sheet1!C15*1000</f>
-        <v>300000</v>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" s="20">
         <f>Z13/21</f>
-        <v>0</v>
+        <v>142.85714285714286</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="G13:P13" si="19">$Z14/21+F13</f>
+        <v>428.57142857142856</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13" si="4">$Z13/21+G13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>714.28571428571422</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13" si="5">$Z13/21+H13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1000</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13" si="6">$Z13/21+I13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1285.7142857142858</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13" si="7">$Z13/21+J13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1571.4285714285716</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13" si="8">$Z13/21+K13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1857.1428571428573</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13" si="9">$Z13/21+L13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2142.8571428571431</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13" si="10">$Z13/21+M13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2428.5714285714289</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13" si="11">$Z13/21+N13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2714.2857142857147</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13" si="12">$Z13/21+O13</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>3000.0000000000005</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13" si="13">$Z13/21+P13</f>
-        <v>0</v>
+        <f t="shared" ref="Q13:Y13" si="20">$Z14/21+P13</f>
+        <v>3285.7142857142862</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13" si="14">$Z13/21+Q13</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3571.428571428572</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13" si="15">$Z13/21+R13</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>3857.1428571428578</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13" si="16">$Z13/21+S13</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4142.8571428571431</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13" si="17">$Z13/21+T13</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4428.5714285714284</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13" si="18">$Z13/21+U13</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4714.2857142857138</v>
       </c>
       <c r="W13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4999.9999999999991</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5285.7142857142844</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5571.4285714285697</v>
+      </c>
+      <c r="Z13" s="20">
+        <f>Sheet1!C16*1000</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -3463,200 +3427,200 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="20">
         <f>Z14/21</f>
-        <v>142.85714285714286</v>
+        <v>285.71428571428572</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:P14" si="19">$Z15/21+F14</f>
-        <v>428.57142857142856</v>
+        <f>$Z15/21+F14</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="H14">
-        <f t="shared" si="19"/>
-        <v>714.28571428571422</v>
+        <f t="shared" ref="H14:Y14" si="21">$Z15/21+G14</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="I14">
-        <f t="shared" si="19"/>
-        <v>1000</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="J14">
-        <f t="shared" si="19"/>
-        <v>1285.7142857142858</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="K14">
-        <f t="shared" si="19"/>
-        <v>1571.4285714285716</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="L14">
-        <f t="shared" si="19"/>
-        <v>1857.1428571428573</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="M14">
-        <f t="shared" si="19"/>
-        <v>2142.8571428571431</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="N14">
-        <f t="shared" si="19"/>
-        <v>2428.5714285714289</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="O14">
-        <f t="shared" si="19"/>
-        <v>2714.2857142857147</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="P14">
-        <f t="shared" si="19"/>
-        <v>3000.0000000000005</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14:Y14" si="20">$Z15/21+P14</f>
-        <v>3285.7142857142862</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="R14">
-        <f t="shared" si="20"/>
-        <v>3571.428571428572</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="S14">
-        <f t="shared" si="20"/>
-        <v>3857.1428571428578</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="T14">
-        <f t="shared" si="20"/>
-        <v>4142.8571428571431</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="U14">
-        <f t="shared" si="20"/>
-        <v>4428.5714285714284</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="V14">
-        <f t="shared" si="20"/>
-        <v>4714.2857142857138</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="W14">
-        <f t="shared" si="20"/>
-        <v>4999.9999999999991</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="X14">
-        <f t="shared" si="20"/>
-        <v>5285.7142857142844</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="20"/>
-        <v>5571.4285714285697</v>
+        <f t="shared" si="21"/>
+        <v>285.71428571428572</v>
       </c>
       <c r="Z14" s="20">
-        <f>Sheet1!C16*1000</f>
-        <v>3000</v>
+        <f>Sheet1!C17*1000</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="20">
-        <f>Z15/21</f>
-        <v>285.71428571428572</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G15">
-        <f>$Z16/21+F15</f>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:Y15" si="21">$Z16/21+G15</f>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z15" s="20">
-        <f>Sheet1!C17*1000</f>
-        <v>6000</v>
+        <f>Sheet1!C19*1000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -3665,7 +3629,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="2"/>
@@ -3748,16 +3712,15 @@
         <v>0</v>
       </c>
       <c r="Z16" s="20">
-        <f>Sheet1!C19*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -3766,189 +3729,89 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.71428571428571419</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1904761904761905</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.9047619047619049</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="P17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.6190476190476191</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.0952380952380953</v>
       </c>
       <c r="S17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="U17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.8095238095238098</v>
       </c>
       <c r="V17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="V17:Y17" si="22">$Z17/21+U17</f>
+        <v>4.0476190476190474</v>
       </c>
       <c r="W17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="2"/>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0.71428571428571419</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>1.1904761904761905</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>1.9047619047619049</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>2.3809523809523809</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
-        <v>2.6190476190476191</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="3"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="3"/>
-        <v>3.0952380952380953</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="3"/>
-        <v>3.8095238095238098</v>
-      </c>
-      <c r="V18">
-        <f t="shared" ref="V18:Y18" si="22">$Z18/21+U18</f>
-        <v>4.0476190476190474</v>
-      </c>
-      <c r="W18">
         <f t="shared" si="22"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="X18">
+      <c r="X17">
         <f t="shared" si="22"/>
         <v>4.5238095238095237</v>
       </c>
-      <c r="Y18">
+      <c r="Y17">
         <f t="shared" si="22"/>
         <v>4.7619047619047619</v>
       </c>
-      <c r="Z18" s="20">
+      <c r="Z17" s="20">
         <f>Sheet1!C20+Sheet1!C21</f>
         <v>5</v>
       </c>
@@ -4005,7 +3868,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A981A2C2-2927-DB4E-B9D6-F3E5639D7BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F933A-D8BE-0243-94E5-8D9E9D0F2806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>Solar</t>
   </si>
@@ -430,9 +430,6 @@
 I kept the "animal manure" line the same, since there's really significant public opposition to those in the SJV.
 I allocated all forest and ag waste to electricity and H2, and none to SAF because of shipping costs and their impact on CI score.
 Don't know how much H2 it would take to cover all of the SJV's urea needs, but it would be great to get at that number.</t>
-  </si>
-  <si>
-    <t>Animal Fats</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2108,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3717,7 +3714,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://randus-my.sharepoint.com/personal/jrojasa_rand_org/Documents/Documents/GitHub/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F933A-D8BE-0243-94E5-8D9E9D0F2806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{4F6F933A-D8BE-0243-94E5-8D9E9D0F2806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5591EF2C-171A-469C-99DE-33CDED525AA2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -586,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -622,6 +622,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -967,11 +971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="4" width="27" customWidth="1"/>
@@ -979,30 +983,30 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6" ht="115" customHeight="1">
+      <c r="A2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1342,14 +1346,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
@@ -1406,17 +1410,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="E30" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="E31" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="16" t="s">
         <v>49</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>27</v>
       </c>
@@ -1476,19 +1480,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAF5C93-78A2-4745-8CA2-3B35004E83AD}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="39.83203125" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
@@ -1638,183 +1642,141 @@
         <v>91</v>
       </c>
       <c r="C3" s="22">
-        <f>Sheet1!B34</f>
         <v>0.8</v>
       </c>
       <c r="D3" s="22">
-        <f>Sheet1!C34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E3" s="22">
-        <f>Sheet1!D34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="22">
-        <f>Sheet1!E34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="22">
-        <f>Sheet1!F34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="22">
-        <f>Sheet1!G34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="22">
-        <f>Sheet1!H34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J3" s="22">
-        <f>Sheet1!I34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K3" s="22">
-        <f>Sheet1!J34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L3" s="22">
-        <f>Sheet1!K34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M3" s="22">
-        <f>Sheet1!L34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N3" s="22">
-        <f>Sheet1!M34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O3" s="22">
-        <f>Sheet1!N34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P3" s="22">
-        <f>Sheet1!O34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q3" s="22">
-        <f>Sheet1!P34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R3" s="22">
-        <f>Sheet1!Q34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S3" s="22">
-        <f>Sheet1!R34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T3" s="22">
-        <f>Sheet1!S34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U3" s="22">
-        <f>Sheet1!T34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V3" s="22">
-        <f>Sheet1!U34</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W3" s="22">
-        <f>Sheet1!V34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="22">
-        <f>Sheet1!B35</f>
+      <c r="C4" s="26">
         <v>0.2</v>
       </c>
-      <c r="D4" s="22">
-        <f>Sheet1!C35</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <f>Sheet1!D35</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <f>Sheet1!E35</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <f>Sheet1!F35</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <f>Sheet1!G35</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="22">
-        <f>Sheet1!H35</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <f>Sheet1!I35</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <f>Sheet1!J35</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
-        <f>Sheet1!K35</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <f>Sheet1!L35</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
-        <f>Sheet1!M35</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <f>Sheet1!N35</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="22">
-        <f>Sheet1!O35</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <f>Sheet1!P35</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <f>Sheet1!Q35</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="22">
-        <f>Sheet1!R35</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="22">
-        <f>Sheet1!S35</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="22">
-        <f>Sheet1!T35</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="22">
-        <f>Sheet1!U35</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="22">
-        <f>Sheet1!V35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="U4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
@@ -1885,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2097,6 +2059,10 @@
       <c r="W8">
         <v>1</v>
       </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,19 +2073,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB86C67-1FB8-CB44-BDCD-F09BD6DE6122}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="26" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2199,7 +2166,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2267,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2502,7 +2469,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2570,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +2671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +2772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2906,7 +2873,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3007,35 +2974,35 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:26">
+      <c r="A10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="24">
         <f t="shared" si="2"/>
         <v>19047.619047619046</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="23">
         <f t="shared" si="3"/>
         <v>38095.238095238092</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="23">
         <f t="shared" si="3"/>
         <v>57142.857142857138</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="23">
         <f t="shared" si="3"/>
         <v>76190.476190476184</v>
       </c>
@@ -3108,7 +3075,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3176,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3309,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3410,7 +3377,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3511,7 +3478,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3612,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3712,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3826,9 +3793,9 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -3836,7 +3803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -3844,7 +3811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3852,7 +3819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3860,7 +3827,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>64</v>
       </c>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F933A-D8BE-0243-94E5-8D9E9D0F2806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD17DC-20A6-F54F-99F1-2F011817E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAF5C93-78A2-4745-8CA2-3B35004E83AD}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1642,84 +1642,84 @@
         <v>0.8</v>
       </c>
       <c r="D3" s="22">
-        <f>Sheet1!C34</f>
-        <v>0</v>
+        <f>C3</f>
+        <v>0.8</v>
       </c>
       <c r="E3" s="22">
-        <f>Sheet1!D34</f>
-        <v>0</v>
+        <f t="shared" ref="E3:W3" si="0">D3</f>
+        <v>0.8</v>
       </c>
       <c r="F3" s="22">
-        <f>Sheet1!E34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="G3" s="22">
-        <f>Sheet1!F34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="H3" s="22">
-        <f>Sheet1!G34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="I3" s="22">
-        <f>Sheet1!H34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="J3" s="22">
-        <f>Sheet1!I34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="K3" s="22">
-        <f>Sheet1!J34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="L3" s="22">
-        <f>Sheet1!K34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="M3" s="22">
-        <f>Sheet1!L34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="N3" s="22">
-        <f>Sheet1!M34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="O3" s="22">
-        <f>Sheet1!N34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="P3" s="22">
-        <f>Sheet1!O34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="Q3" s="22">
-        <f>Sheet1!P34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="R3" s="22">
-        <f>Sheet1!Q34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="S3" s="22">
-        <f>Sheet1!R34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="T3" s="22">
-        <f>Sheet1!S34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="U3" s="22">
-        <f>Sheet1!T34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="V3" s="22">
-        <f>Sheet1!U34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="W3" s="22">
-        <f>Sheet1!V34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1734,84 +1734,84 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="22">
-        <f>Sheet1!C35</f>
-        <v>0</v>
+        <f>C4</f>
+        <v>0.2</v>
       </c>
       <c r="E4" s="22">
-        <f>Sheet1!D35</f>
-        <v>0</v>
+        <f t="shared" ref="E4:W4" si="1">D4</f>
+        <v>0.2</v>
       </c>
       <c r="F4" s="22">
-        <f>Sheet1!E35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="G4" s="22">
-        <f>Sheet1!F35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="H4" s="22">
-        <f>Sheet1!G35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="I4" s="22">
-        <f>Sheet1!H35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="J4" s="22">
-        <f>Sheet1!I35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="K4" s="22">
-        <f>Sheet1!J35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="L4" s="22">
-        <f>Sheet1!K35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="M4" s="22">
-        <f>Sheet1!L35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="N4" s="22">
-        <f>Sheet1!M35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="O4" s="22">
-        <f>Sheet1!N35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="P4" s="22">
-        <f>Sheet1!O35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="22">
-        <f>Sheet1!P35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="R4" s="22">
-        <f>Sheet1!Q35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="S4" s="22">
-        <f>Sheet1!R35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="T4" s="22">
-        <f>Sheet1!S35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="U4" s="22">
-        <f>Sheet1!T35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="V4" s="22">
-        <f>Sheet1!U35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="W4" s="22">
-        <f>Sheet1!V35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB86C67-1FB8-CB44-BDCD-F09BD6DE6122}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD17DC-20A6-F54F-99F1-2F011817E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD245A7-F57E-C54D-B6BA-0613E83CDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1478,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAF5C93-78A2-4745-8CA2-3B35004E83AD}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB86C67-1FB8-CB44-BDCD-F09BD6DE6122}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3330,80 +3330,80 @@
         <v>142.85714285714286</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:P13" si="19">$Z14/21+F13</f>
-        <v>428.57142857142856</v>
+        <f>$Z13/21+F13</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="H13">
-        <f t="shared" si="19"/>
-        <v>714.28571428571422</v>
+        <f t="shared" ref="G13:P13" si="19">$Z14/21+G13</f>
+        <v>571.42857142857144</v>
       </c>
       <c r="I13">
         <f t="shared" si="19"/>
-        <v>1000</v>
+        <v>857.14285714285711</v>
       </c>
       <c r="J13">
         <f t="shared" si="19"/>
-        <v>1285.7142857142858</v>
+        <v>1142.8571428571429</v>
       </c>
       <c r="K13">
         <f t="shared" si="19"/>
-        <v>1571.4285714285716</v>
+        <v>1428.5714285714287</v>
       </c>
       <c r="L13">
         <f t="shared" si="19"/>
-        <v>1857.1428571428573</v>
+        <v>1714.2857142857144</v>
       </c>
       <c r="M13">
         <f t="shared" si="19"/>
-        <v>2142.8571428571431</v>
+        <v>2000.0000000000002</v>
       </c>
       <c r="N13">
         <f t="shared" si="19"/>
-        <v>2428.5714285714289</v>
+        <v>2285.7142857142858</v>
       </c>
       <c r="O13">
         <f t="shared" si="19"/>
-        <v>2714.2857142857147</v>
+        <v>2571.4285714285716</v>
       </c>
       <c r="P13">
         <f t="shared" si="19"/>
-        <v>3000.0000000000005</v>
+        <v>2857.1428571428573</v>
       </c>
       <c r="Q13">
         <f t="shared" ref="Q13:Y13" si="20">$Z14/21+P13</f>
-        <v>3285.7142857142862</v>
+        <v>3142.8571428571431</v>
       </c>
       <c r="R13">
         <f t="shared" si="20"/>
-        <v>3571.428571428572</v>
+        <v>3428.5714285714289</v>
       </c>
       <c r="S13">
         <f t="shared" si="20"/>
-        <v>3857.1428571428578</v>
+        <v>3714.2857142857147</v>
       </c>
       <c r="T13">
         <f t="shared" si="20"/>
-        <v>4142.8571428571431</v>
+        <v>4000.0000000000005</v>
       </c>
       <c r="U13">
         <f t="shared" si="20"/>
-        <v>4428.5714285714284</v>
+        <v>4285.7142857142862</v>
       </c>
       <c r="V13">
         <f t="shared" si="20"/>
-        <v>4714.2857142857138</v>
+        <v>4571.4285714285716</v>
       </c>
       <c r="W13">
         <f t="shared" si="20"/>
-        <v>4999.9999999999991</v>
+        <v>4857.1428571428569</v>
       </c>
       <c r="X13">
         <f t="shared" si="20"/>
-        <v>5285.7142857142844</v>
+        <v>5142.8571428571422</v>
       </c>
       <c r="Y13">
         <f t="shared" si="20"/>
-        <v>5571.4285714285697</v>
+        <v>5428.5714285714275</v>
       </c>
       <c r="Z13" s="20">
         <f>Sheet1!C16*1000</f>
@@ -3431,80 +3431,80 @@
         <v>285.71428571428572</v>
       </c>
       <c r="G14">
-        <f>$Z15/21+F14</f>
-        <v>285.71428571428572</v>
+        <f>$Z14/21+F14</f>
+        <v>571.42857142857144</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:Y14" si="21">$Z15/21+G14</f>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="I14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="J14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="K14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="L14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="M14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="N14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="O14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="P14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="Q14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="R14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="S14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="T14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="U14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="V14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="W14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="X14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="Y14">
         <f t="shared" si="21"/>
-        <v>285.71428571428572</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="Z14" s="20">
         <f>Sheet1!C17*1000</f>

--- a/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet - EBetancourt-TheExpectedPortfolio EDITED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD245A7-F57E-C54D-B6BA-0613E83CDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2071FA0E-2D67-AF4D-B36E-3F610A3B686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
@@ -2108,7 +2108,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3238,59 +3238,59 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12" si="5">$Z12/21+H12</f>
+        <f t="shared" ref="I12:I13" si="5">$Z12/21+H12</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12" si="6">$Z12/21+I12</f>
+        <f t="shared" ref="J12:J13" si="6">$Z12/21+I12</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12" si="7">$Z12/21+J12</f>
+        <f t="shared" ref="K12:K13" si="7">$Z12/21+J12</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12" si="8">$Z12/21+K12</f>
+        <f t="shared" ref="L12:L13" si="8">$Z12/21+K12</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12" si="9">$Z12/21+L12</f>
+        <f t="shared" ref="M12:M13" si="9">$Z12/21+L12</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12" si="10">$Z12/21+M12</f>
+        <f t="shared" ref="N12:N13" si="10">$Z12/21+M12</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12" si="11">$Z12/21+N12</f>
+        <f t="shared" ref="O12:O13" si="11">$Z12/21+N12</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12" si="12">$Z12/21+O12</f>
+        <f t="shared" ref="P12:P13" si="12">$Z12/21+O12</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12" si="13">$Z12/21+P12</f>
+        <f t="shared" ref="Q12:Q13" si="13">$Z12/21+P12</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12" si="14">$Z12/21+Q12</f>
+        <f t="shared" ref="R12:R13" si="14">$Z12/21+Q12</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12" si="15">$Z12/21+R12</f>
+        <f t="shared" ref="S12:S13" si="15">$Z12/21+R12</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12" si="16">$Z12/21+S12</f>
+        <f t="shared" ref="T12:T13" si="16">$Z12/21+S12</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" ref="U12" si="17">$Z12/21+T12</f>
+        <f t="shared" ref="U12:U13" si="17">$Z12/21+T12</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" ref="V12" si="18">$Z12/21+U12</f>
+        <f t="shared" ref="V12:V13" si="18">$Z12/21+U12</f>
         <v>0</v>
       </c>
       <c r="W12">
@@ -3334,76 +3334,76 @@
         <v>285.71428571428572</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="G13:P13" si="19">$Z14/21+G13</f>
+        <f>$Z13/21+G13</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
         <v>571.42857142857144</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="19"/>
-        <v>857.14285714285711</v>
-      </c>
       <c r="J13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
+        <v>714.28571428571433</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>857.14285714285722</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="9"/>
         <v>1142.8571428571429</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="19"/>
+      <c r="N13">
+        <f t="shared" si="10"/>
+        <v>1285.7142857142858</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="11"/>
         <v>1428.5714285714287</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="19"/>
+      <c r="P13">
+        <f t="shared" si="12"/>
+        <v>1571.4285714285716</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="13"/>
         <v>1714.2857142857144</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="19"/>
+      <c r="R13">
+        <f t="shared" si="14"/>
+        <v>1857.1428571428573</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="15"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="19"/>
+      <c r="T13">
+        <f t="shared" si="16"/>
+        <v>2142.8571428571431</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="17"/>
         <v>2285.7142857142858</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="19"/>
-        <v>2571.4285714285716</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="19"/>
-        <v>2857.1428571428573</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q13:Y13" si="20">$Z14/21+P13</f>
-        <v>3142.8571428571431</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="20"/>
-        <v>3428.5714285714289</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="20"/>
-        <v>3714.2857142857147</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="20"/>
-        <v>4000.0000000000005</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="20"/>
-        <v>4285.7142857142862</v>
-      </c>
       <c r="V13">
-        <f t="shared" si="20"/>
-        <v>4571.4285714285716</v>
+        <f t="shared" si="18"/>
+        <v>2428.5714285714284</v>
       </c>
       <c r="W13">
-        <f t="shared" si="20"/>
-        <v>4857.1428571428569</v>
+        <f t="shared" si="1"/>
+        <v>2571.4285714285711</v>
       </c>
       <c r="X13">
-        <f t="shared" si="20"/>
-        <v>5142.8571428571422</v>
+        <f t="shared" si="1"/>
+        <v>2714.2857142857138</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="20"/>
-        <v>5428.5714285714275</v>
+        <f t="shared" si="1"/>
+        <v>2857.1428571428564</v>
       </c>
       <c r="Z13" s="20">
         <f>Sheet1!C16*1000</f>
@@ -3435,76 +3435,76 @@
         <v>571.42857142857144</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:Y14" si="21">$Z15/21+G14</f>
-        <v>571.42857142857144</v>
+        <f t="shared" ref="H14:Y14" si="19">$Z14/21+G14</f>
+        <v>857.14285714285711</v>
       </c>
       <c r="I14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>1142.8571428571429</v>
       </c>
       <c r="J14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>1428.5714285714287</v>
       </c>
       <c r="K14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>1714.2857142857144</v>
       </c>
       <c r="L14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>2000.0000000000002</v>
       </c>
       <c r="M14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>2285.7142857142858</v>
       </c>
       <c r="N14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>2571.4285714285716</v>
       </c>
       <c r="O14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>2857.1428571428573</v>
       </c>
       <c r="P14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>3142.8571428571431</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>3428.5714285714289</v>
       </c>
       <c r="R14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>3714.2857142857147</v>
       </c>
       <c r="S14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>4000.0000000000005</v>
       </c>
       <c r="T14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>4285.7142857142862</v>
       </c>
       <c r="U14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>4571.4285714285716</v>
       </c>
       <c r="V14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>4857.1428571428569</v>
       </c>
       <c r="W14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>5142.8571428571422</v>
       </c>
       <c r="X14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>5428.5714285714275</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="21"/>
-        <v>571.42857142857144</v>
+        <f t="shared" si="19"/>
+        <v>5714.2857142857129</v>
       </c>
       <c r="Z14" s="20">
         <f>Sheet1!C17*1000</f>
@@ -3793,19 +3793,19 @@
         <v>3.8095238095238098</v>
       </c>
       <c r="V17">
-        <f t="shared" ref="V17:Y17" si="22">$Z17/21+U17</f>
+        <f t="shared" ref="V17:Y17" si="20">$Z17/21+U17</f>
         <v>4.0476190476190474</v>
       </c>
       <c r="W17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4.2857142857142856</v>
       </c>
       <c r="X17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4.5238095238095237</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="Z17" s="20">
